--- a/results/BVH.xlsx
+++ b/results/BVH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Computer-Graphics\ComputerGrahpics-nrenderer\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74709A88-19BA-4ED6-A611-1F22C4DCC2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E87448-C286-4AA6-9435-1425D133692C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>BVH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>1k/1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3k/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3k/256</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -436,9 +444,11 @@
     <col min="8" max="8" width="18.21875" customWidth="1"/>
     <col min="9" max="9" width="15.77734375" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -466,8 +476,14 @@
       <c r="J1" t="s">
         <v>16</v>
       </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -493,13 +509,19 @@
         <v>17.87</v>
       </c>
       <c r="I2">
-        <v>268.67</v>
+        <v>265.67</v>
       </c>
       <c r="J2">
         <v>1062.68</v>
       </c>
+      <c r="K2">
+        <v>17.8</v>
+      </c>
+      <c r="L2">
+        <v>267.42</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -530,8 +552,14 @@
       <c r="J3" s="1">
         <v>7165413542</v>
       </c>
+      <c r="K3">
+        <v>116369880</v>
+      </c>
+      <c r="L3">
+        <v>1861817218</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -557,13 +585,19 @@
         <v>246.38</v>
       </c>
       <c r="I4">
-        <v>3938.12</v>
+        <v>3890.12</v>
       </c>
       <c r="J4">
         <v>15748.32</v>
       </c>
+      <c r="K4">
+        <v>951.48</v>
+      </c>
+      <c r="L4">
+        <v>15182.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -593,6 +627,12 @@
       </c>
       <c r="J5" s="1">
         <v>885520097351</v>
+      </c>
+      <c r="K5">
+        <v>51678361196</v>
+      </c>
+      <c r="L5" s="1">
+        <v>826853778125</v>
       </c>
     </row>
   </sheetData>
